--- a/秋招.xlsx
+++ b/秋招.xlsx
@@ -1873,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.4"/>
